--- a/server/hec_40.xlsx
+++ b/server/hec_40.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatot\.vscode\hems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatot\.vscode\hems\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE4B1923-8676-4C2B-9335-4FE5B626BC17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474609C-9A87-43A6-8A80-475E767BAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>time</t>
   </si>
@@ -51,6 +51,23 @@
   </si>
   <si>
     <t>エアコン_料金</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子レンジ_消費電力</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電子レンジ_料金</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウキン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -89,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,13 +129,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -423,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,8 +478,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -464,8 +501,14 @@
       <c r="E2">
         <v>2.349963943795792E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -481,8 +524,14 @@
       <c r="E3">
         <v>2.229759497523911E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -498,8 +547,14 @@
       <c r="E4">
         <v>2.1894331308035279E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -515,8 +570,14 @@
       <c r="E5">
         <v>2.197226427001756E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -532,8 +593,14 @@
       <c r="E6">
         <v>2.242575585518651E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -549,8 +616,14 @@
       <c r="E7">
         <v>2.4620718359409321E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -566,8 +639,14 @@
       <c r="E8">
         <v>2.4880953956169989E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -583,8 +662,14 @@
       <c r="E9">
         <v>2.5336533092278411E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -600,8 +685,14 @@
       <c r="E10">
         <v>2.5630360167593139E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -617,8 +708,14 @@
       <c r="E11">
         <v>2.2062332614942171E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -634,8 +731,14 @@
       <c r="E12">
         <v>2.1709727117529671E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -651,8 +754,14 @@
       <c r="E13">
         <v>2.181015151779612E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -668,8 +777,14 @@
       <c r="E14">
         <v>2.541360705843708E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -685,8 +800,14 @@
       <c r="E15">
         <v>2.3384345673387549E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -702,8 +823,14 @@
       <c r="E16">
         <v>2.4903337144583982E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -719,8 +846,14 @@
       <c r="E17">
         <v>2.589369958813449E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -736,8 +869,14 @@
       <c r="E18">
         <v>2.568429589364023E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -753,8 +892,14 @@
       <c r="E19">
         <v>2.285241800920304E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -770,8 +915,14 @@
       <c r="E20">
         <v>2.340268795712789E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -787,8 +938,14 @@
       <c r="E21">
         <v>2.2633615959346369E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -804,8 +961,14 @@
       <c r="E22">
         <v>2.3299534387499822E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -821,8 +984,14 @@
       <c r="E23">
         <v>2.2351931817075092E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -838,8 +1007,14 @@
       <c r="E24">
         <v>2.475346612262399E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -855,8 +1030,14 @@
       <c r="E25">
         <v>2.4199240568842789E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -872,8 +1053,14 @@
       <c r="E26">
         <v>2.3240361153831881E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -889,8 +1076,14 @@
       <c r="E27">
         <v>2.453818234598568E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -906,8 +1099,14 @@
       <c r="E28">
         <v>2.2777458125310878E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -923,8 +1122,14 @@
       <c r="E29">
         <v>2.2780746411592361E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -940,8 +1145,14 @@
       <c r="E30">
         <v>2.2622294481791441E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -957,8 +1168,14 @@
       <c r="E31">
         <v>2.6025135110377589E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -974,8 +1191,14 @@
       <c r="E32">
         <v>2.1761655469271259E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -991,8 +1214,14 @@
       <c r="E33">
         <v>2.5176722043637541E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1008,8 +1237,14 @@
       <c r="E34">
         <v>2.2291089469899162E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1025,8 +1260,14 @@
       <c r="E35">
         <v>2.244964458464034E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1042,8 +1283,14 @@
       <c r="E36">
         <v>2.6292240362526852E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1059,8 +1306,14 @@
       <c r="E37">
         <v>2.4475363115378829E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1076,8 +1329,14 @@
       <c r="E38">
         <v>2.40601928712332E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1093,8 +1352,14 @@
       <c r="E39">
         <v>2.573516499162517E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1110,8 +1375,14 @@
       <c r="E40">
         <v>2.569156534272463E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1126,6 +1397,12 @@
       </c>
       <c r="E41">
         <v>2.1615348118851352E-3</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/server/hec_40.xlsx
+++ b/server/hec_40.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatot\.vscode\hems\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E474609C-9A87-43A6-8A80-475E767BAD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5A4F89-88E2-485B-957B-EF178AA2546C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -454,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1068,7 +1068,7 @@
         <v>5.107744467101389E-5</v>
       </c>
       <c r="C27">
-        <v>1.532323340130417E-3</v>
+        <v>212</v>
       </c>
       <c r="D27">
         <v>8.1793941153285603E-5</v>
@@ -1189,7 +1189,7 @@
         <v>7.2538851564237544E-5</v>
       </c>
       <c r="E32">
-        <v>2.1761655469271259E-3</v>
+        <v>233</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1402,6 +1402,1156 @@
         <v>0</v>
       </c>
       <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>5.5091669083051901E-5</v>
+      </c>
+      <c r="C42">
+        <v>1.65275007249156E-3</v>
+      </c>
+      <c r="D42">
+        <v>8.0486158113238703E-5</v>
+      </c>
+      <c r="E42">
+        <v>2.4145847433971598E-3</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>5.5069045709947801E-5</v>
+      </c>
+      <c r="C43">
+        <v>1.6520713712984299E-3</v>
+      </c>
+      <c r="D43">
+        <v>8.0556841814491195E-5</v>
+      </c>
+      <c r="E43">
+        <v>2.4167052544347401E-3</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>5.5046422336843802E-5</v>
+      </c>
+      <c r="C44">
+        <v>1.65139267010531E-3</v>
+      </c>
+      <c r="D44">
+        <v>8.0627525515743794E-5</v>
+      </c>
+      <c r="E44">
+        <v>2.41882576547231E-3</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>5.5023798963739797E-5</v>
+      </c>
+      <c r="C45">
+        <v>1.6507139689121899E-3</v>
+      </c>
+      <c r="D45">
+        <v>8.0698209216996299E-5</v>
+      </c>
+      <c r="E45">
+        <v>2.4209462765098898E-3</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>5.5001175590635697E-5</v>
+      </c>
+      <c r="C46">
+        <v>1.65003526771907E-3</v>
+      </c>
+      <c r="D46">
+        <v>8.0768892918248899E-5</v>
+      </c>
+      <c r="E46">
+        <v>2.4230667875474701E-3</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>5.4978552217531699E-5</v>
+      </c>
+      <c r="C47">
+        <v>1.6493565665259499E-3</v>
+      </c>
+      <c r="D47">
+        <v>8.0839576619501404E-5</v>
+      </c>
+      <c r="E47">
+        <v>2.42518729858504E-3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>5.4955928844427701E-5</v>
+      </c>
+      <c r="C48">
+        <v>1.64867786533283E-3</v>
+      </c>
+      <c r="D48">
+        <v>8.0910260320754004E-5</v>
+      </c>
+      <c r="E48">
+        <v>2.4273078096226199E-3</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>5.4933305471323601E-5</v>
+      </c>
+      <c r="C49">
+        <v>1.6479991641397101E-3</v>
+      </c>
+      <c r="D49">
+        <v>8.0980944022006603E-5</v>
+      </c>
+      <c r="E49">
+        <v>2.4294283206602002E-3</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>5.4910682098219603E-5</v>
+      </c>
+      <c r="C50">
+        <v>1.64732046294659E-3</v>
+      </c>
+      <c r="D50">
+        <v>8.1051627723259095E-5</v>
+      </c>
+      <c r="E50">
+        <v>2.4315488316977701E-3</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>5.4888058725115598E-5</v>
+      </c>
+      <c r="C51">
+        <v>1.6466417617534701E-3</v>
+      </c>
+      <c r="D51">
+        <v>8.1122311424511694E-5</v>
+      </c>
+      <c r="E51">
+        <v>2.4336693427353499E-3</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>5.4865435352011498E-5</v>
+      </c>
+      <c r="C52">
+        <v>1.64596306056034E-3</v>
+      </c>
+      <c r="D52">
+        <v>8.1192995125764199E-5</v>
+      </c>
+      <c r="E52">
+        <v>2.4357898537729298E-3</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>5.48428119789075E-5</v>
+      </c>
+      <c r="C53">
+        <v>1.6452843593672199E-3</v>
+      </c>
+      <c r="D53">
+        <v>8.1263678827016799E-5</v>
+      </c>
+      <c r="E53">
+        <v>2.4379103648105001E-3</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>5.48201886058034E-5</v>
+      </c>
+      <c r="C54">
+        <v>1.6446056581741E-3</v>
+      </c>
+      <c r="D54">
+        <v>8.1334362528269304E-5</v>
+      </c>
+      <c r="E54">
+        <v>2.44003087584808E-3</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>5.4797565232699401E-5</v>
+      </c>
+      <c r="C55">
+        <v>1.6439269569809799E-3</v>
+      </c>
+      <c r="D55">
+        <v>8.1405046229521903E-5</v>
+      </c>
+      <c r="E55">
+        <v>2.4421513868856598E-3</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.4774941859595403E-5</v>
+      </c>
+      <c r="C56">
+        <v>1.64324825578786E-3</v>
+      </c>
+      <c r="D56">
+        <v>8.1475729930774395E-5</v>
+      </c>
+      <c r="E56">
+        <v>2.4442718979232302E-3</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>5.4752318486491303E-5</v>
+      </c>
+      <c r="C57">
+        <v>1.6425695545947399E-3</v>
+      </c>
+      <c r="D57">
+        <v>8.1546413632026994E-5</v>
+      </c>
+      <c r="E57">
+        <v>2.44639240896081E-3</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>5.4729695113387298E-5</v>
+      </c>
+      <c r="C58">
+        <v>1.64189085340162E-3</v>
+      </c>
+      <c r="D58">
+        <v>8.1617097333279594E-5</v>
+      </c>
+      <c r="E58">
+        <v>2.4485129199983899E-3</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>5.47070717402833E-5</v>
+      </c>
+      <c r="C59">
+        <v>1.6412121522084999E-3</v>
+      </c>
+      <c r="D59">
+        <v>8.1687781034532099E-5</v>
+      </c>
+      <c r="E59">
+        <v>2.4506334310359602E-3</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>5.46844483671792E-5</v>
+      </c>
+      <c r="C60">
+        <v>1.64053345101538E-3</v>
+      </c>
+      <c r="D60">
+        <v>8.1758464735784699E-5</v>
+      </c>
+      <c r="E60">
+        <v>2.4527539420735401E-3</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>5.4661824994075202E-5</v>
+      </c>
+      <c r="C61">
+        <v>1.6398547498222499E-3</v>
+      </c>
+      <c r="D61">
+        <v>8.1829148437037203E-5</v>
+      </c>
+      <c r="E61">
+        <v>2.4548744531111199E-3</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>5.4639201620971197E-5</v>
+      </c>
+      <c r="C62">
+        <v>1.63917604862913E-3</v>
+      </c>
+      <c r="D62">
+        <v>8.1899832138289803E-5</v>
+      </c>
+      <c r="E62">
+        <v>2.4569949641486898E-3</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>5.4616578247867097E-5</v>
+      </c>
+      <c r="C63">
+        <v>1.6384973474360099E-3</v>
+      </c>
+      <c r="D63">
+        <v>8.1970515839542294E-5</v>
+      </c>
+      <c r="E63">
+        <v>2.4591154751862701E-3</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>5.4593954874763099E-5</v>
+      </c>
+      <c r="C64">
+        <v>1.63781864624289E-3</v>
+      </c>
+      <c r="D64">
+        <v>8.2041199540794894E-5</v>
+      </c>
+      <c r="E64">
+        <v>2.46123598622385E-3</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>5.45713315016591E-5</v>
+      </c>
+      <c r="C65">
+        <v>1.6371399450497699E-3</v>
+      </c>
+      <c r="D65">
+        <v>8.2111883242047399E-5</v>
+      </c>
+      <c r="E65">
+        <v>2.4633564972614199E-3</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>5.4548708128555E-5</v>
+      </c>
+      <c r="C66">
+        <v>1.63646124385665E-3</v>
+      </c>
+      <c r="D66">
+        <v>8.2182566943299999E-5</v>
+      </c>
+      <c r="E66">
+        <v>2.4654770082990001E-3</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>5.4526084755451002E-5</v>
+      </c>
+      <c r="C67">
+        <v>1.6357825426635299E-3</v>
+      </c>
+      <c r="D67">
+        <v>8.2253250644552503E-5</v>
+      </c>
+      <c r="E67">
+        <v>2.46759751933657E-3</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>5.4503461382346997E-5</v>
+      </c>
+      <c r="C68">
+        <v>1.63510384147041E-3</v>
+      </c>
+      <c r="D68">
+        <v>8.2323934345805103E-5</v>
+      </c>
+      <c r="E68">
+        <v>2.4697180303741499E-3</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>5.4480838009242897E-5</v>
+      </c>
+      <c r="C69">
+        <v>1.6344251402772899E-3</v>
+      </c>
+      <c r="D69">
+        <v>8.2394618047057594E-5</v>
+      </c>
+      <c r="E69">
+        <v>2.4718385414117302E-3</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>5.4458214636138899E-5</v>
+      </c>
+      <c r="C70">
+        <v>1.63374643908417E-3</v>
+      </c>
+      <c r="D70">
+        <v>8.2465301748310194E-5</v>
+      </c>
+      <c r="E70">
+        <v>2.4739590524493001E-3</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>5.4435591263034901E-5</v>
+      </c>
+      <c r="C71">
+        <v>1.6330677378910399E-3</v>
+      </c>
+      <c r="D71">
+        <v>8.2535985449562794E-5</v>
+      </c>
+      <c r="E71">
+        <v>2.4760795634868799E-3</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>5.4412967889930801E-5</v>
+      </c>
+      <c r="C72">
+        <v>1.63238903669792E-3</v>
+      </c>
+      <c r="D72">
+        <v>8.2606669150815299E-5</v>
+      </c>
+      <c r="E72">
+        <v>2.4782000745244598E-3</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>5.4390344516826803E-5</v>
+      </c>
+      <c r="C73">
+        <v>1.6317103355047999E-3</v>
+      </c>
+      <c r="D73">
+        <v>8.2677352852067898E-5</v>
+      </c>
+      <c r="E73">
+        <v>2.4803205855620301E-3</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>5.4367721143722797E-5</v>
+      </c>
+      <c r="C74">
+        <v>1.63103163431168E-3</v>
+      </c>
+      <c r="D74">
+        <v>8.2748036553320403E-5</v>
+      </c>
+      <c r="E74">
+        <v>2.48244109659961E-3</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>5.4345097770618698E-5</v>
+      </c>
+      <c r="C75">
+        <v>1.6303529331185599E-3</v>
+      </c>
+      <c r="D75">
+        <v>8.2818720254573003E-5</v>
+      </c>
+      <c r="E75">
+        <v>2.4845616076371898E-3</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>5.4322474397514699E-5</v>
+      </c>
+      <c r="C76">
+        <v>1.62967423192544E-3</v>
+      </c>
+      <c r="D76">
+        <v>8.2889403955825494E-5</v>
+      </c>
+      <c r="E76">
+        <v>2.4866821186747602E-3</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>5.4299851024410599E-5</v>
+      </c>
+      <c r="C77">
+        <v>1.6289955307323199E-3</v>
+      </c>
+      <c r="D77">
+        <v>8.2960087657078094E-5</v>
+      </c>
+      <c r="E77">
+        <v>2.48880262971234E-3</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>5.4277227651306601E-5</v>
+      </c>
+      <c r="C78">
+        <v>1.6283168295392E-3</v>
+      </c>
+      <c r="D78">
+        <v>8.3030771358330599E-5</v>
+      </c>
+      <c r="E78">
+        <v>2.4909231407499199E-3</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>5.4254604278202603E-5</v>
+      </c>
+      <c r="C79">
+        <v>1.6276381283460799E-3</v>
+      </c>
+      <c r="D79">
+        <v>8.3101455059583198E-5</v>
+      </c>
+      <c r="E79">
+        <v>2.4930436517874902E-3</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>5.4231980905098598E-5</v>
+      </c>
+      <c r="C80">
+        <v>1.62695942715295E-3</v>
+      </c>
+      <c r="D80">
+        <v>8.3172138760835703E-5</v>
+      </c>
+      <c r="E80">
+        <v>2.4951641628250701E-3</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>5.4209357531994498E-5</v>
+      </c>
+      <c r="C81">
+        <v>1.6262807259598299E-3</v>
+      </c>
+      <c r="D81">
+        <v>8.3242822462088303E-5</v>
+      </c>
+      <c r="E81">
+        <v>2.4972846738626499E-3</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>5.41867341588905E-5</v>
+      </c>
+      <c r="C82">
+        <v>1.62560202476671E-3</v>
+      </c>
+      <c r="D82">
+        <v>8.3313506163340794E-5</v>
+      </c>
+      <c r="E82">
+        <v>2.4994051849002298E-3</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>5.41641107857864E-5</v>
+      </c>
+      <c r="C83">
+        <v>1.6249233235735899E-3</v>
+      </c>
+      <c r="D83">
+        <v>8.3384189864593394E-5</v>
+      </c>
+      <c r="E83">
+        <v>2.5015256959378001E-3</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>5.4141487412682402E-5</v>
+      </c>
+      <c r="C84">
+        <v>1.62424462238047E-3</v>
+      </c>
+      <c r="D84">
+        <v>8.3454873565845994E-5</v>
+      </c>
+      <c r="E84">
+        <v>2.50364620697538E-3</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>5.4118864039578403E-5</v>
+      </c>
+      <c r="C85">
+        <v>1.6235659211873499E-3</v>
+      </c>
+      <c r="D85">
+        <v>8.3525557267098499E-5</v>
+      </c>
+      <c r="E85">
+        <v>2.5057667180129499E-3</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>5.4096240666474303E-5</v>
+      </c>
+      <c r="C86">
+        <v>1.62288721999423E-3</v>
+      </c>
+      <c r="D86">
+        <v>8.3596240968351098E-5</v>
+      </c>
+      <c r="E86">
+        <v>2.5078872290505302E-3</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>5.4073617293370298E-5</v>
+      </c>
+      <c r="C87">
+        <v>1.6222085188011099E-3</v>
+      </c>
+      <c r="D87">
+        <v>8.3666924669603603E-5</v>
+      </c>
+      <c r="E87">
+        <v>2.51000774008811E-3</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>5.40509939202663E-5</v>
+      </c>
+      <c r="C88">
+        <v>1.62152981760799E-3</v>
+      </c>
+      <c r="D88">
+        <v>8.3737608370856203E-5</v>
+      </c>
+      <c r="E88">
+        <v>2.5121282511256799E-3</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>5.40283705471622E-5</v>
+      </c>
+      <c r="C89">
+        <v>1.6208511164148699E-3</v>
+      </c>
+      <c r="D89">
+        <v>8.3808292072108694E-5</v>
+      </c>
+      <c r="E89">
+        <v>2.5142487621632602E-3</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>5.4005747174058202E-5</v>
+      </c>
+      <c r="C90">
+        <v>1.62017241522174E-3</v>
+      </c>
+      <c r="D90">
+        <v>8.3878975773361294E-5</v>
+      </c>
+      <c r="E90">
+        <v>2.5163692732008401E-3</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>5.3983123800954197E-5</v>
+      </c>
+      <c r="C91">
+        <v>1.6194937140286199E-3</v>
+      </c>
+      <c r="D91">
+        <v>8.3949659474613799E-5</v>
+      </c>
+      <c r="E91">
+        <v>2.5184897842384099E-3</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
         <v>0</v>
       </c>
     </row>
